--- a/Jupyter/simulationID/cim_0324_0620/data/bldg/before_complex_16.xlsx
+++ b/Jupyter/simulationID/cim_0324_0620/data/bldg/before_complex_16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="22">
   <si>
     <t>index</t>
   </si>
@@ -52,6 +52,15 @@
     <t>status</t>
   </si>
   <si>
+    <t>renewd</t>
+  </si>
+  <si>
+    <t>PlanID</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
     <t>225_6</t>
   </si>
   <si>
@@ -65,6 +74,12 @@
   </si>
   <si>
     <t>Demolished</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>502-0178285</t>
   </si>
 </sst>
 </file>
@@ -422,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +480,17 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -477,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>56</v>
@@ -504,10 +528,19 @@
         <v>404.4048</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -518,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>56</v>
@@ -545,10 +578,19 @@
         <v>404.4048</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -559,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>56</v>
@@ -586,10 +628,19 @@
         <v>404.4048</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -600,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>56</v>
@@ -627,10 +678,19 @@
         <v>404.4048</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -641,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>56</v>
@@ -668,10 +728,19 @@
         <v>404.4048</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -682,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>56</v>
@@ -709,10 +778,19 @@
         <v>404.4048</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -723,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>56</v>
@@ -750,10 +828,19 @@
         <v>404.4048</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -764,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>56</v>
@@ -791,10 +878,19 @@
         <v>404.4048</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -805,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>56</v>
@@ -832,10 +928,19 @@
         <v>404.4048</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -846,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -873,10 +978,19 @@
         <v>404.4048</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -887,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>56</v>
@@ -914,10 +1028,19 @@
         <v>404.4048</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -928,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>56</v>
@@ -955,10 +1078,19 @@
         <v>404.4048</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -969,7 +1101,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>56</v>
@@ -996,10 +1128,19 @@
         <v>404.4048</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1010,7 +1151,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>56</v>
@@ -1037,10 +1178,19 @@
         <v>404.4048</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1051,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>56</v>
@@ -1078,10 +1228,19 @@
         <v>404.4048</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1092,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>56</v>
@@ -1119,10 +1278,19 @@
         <v>404.4048</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1133,7 +1301,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>56</v>
@@ -1160,10 +1328,19 @@
         <v>404.4048</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1174,7 +1351,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>56</v>
@@ -1201,10 +1378,19 @@
         <v>404.4048</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1215,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>56</v>
@@ -1242,10 +1428,19 @@
         <v>404.4048</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1256,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>56</v>
@@ -1283,10 +1478,19 @@
         <v>404.4048</v>
       </c>
       <c r="M21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1297,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>56</v>
@@ -1324,10 +1528,19 @@
         <v>404.4048</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1338,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>56</v>
@@ -1365,10 +1578,19 @@
         <v>404.4048</v>
       </c>
       <c r="M23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1379,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>56</v>
@@ -1406,10 +1628,19 @@
         <v>404.4048</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1420,7 +1651,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>56</v>
@@ -1447,10 +1678,19 @@
         <v>404.4048</v>
       </c>
       <c r="M25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N25" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1461,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>56</v>
@@ -1488,10 +1728,19 @@
         <v>404.4048</v>
       </c>
       <c r="M26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1502,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>56</v>
@@ -1529,10 +1778,19 @@
         <v>404.4048</v>
       </c>
       <c r="M27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1543,7 +1801,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>56</v>
@@ -1570,10 +1828,19 @@
         <v>404.4048</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1584,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>56</v>
@@ -1611,10 +1878,19 @@
         <v>404.4048</v>
       </c>
       <c r="M29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1625,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>56</v>
@@ -1652,10 +1928,19 @@
         <v>404.4048</v>
       </c>
       <c r="M30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1666,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>56</v>
@@ -1693,10 +1978,19 @@
         <v>404.4048</v>
       </c>
       <c r="M31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1707,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>56</v>
@@ -1734,10 +2028,19 @@
         <v>404.4048</v>
       </c>
       <c r="M32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1748,7 +2051,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>56</v>
@@ -1775,10 +2078,19 @@
         <v>404.4048</v>
       </c>
       <c r="M33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1789,7 +2101,7 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>56</v>
@@ -1816,10 +2128,19 @@
         <v>404.4048</v>
       </c>
       <c r="M34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1830,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>56</v>
@@ -1857,10 +2178,19 @@
         <v>404.4048</v>
       </c>
       <c r="M35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1871,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>56</v>
@@ -1898,10 +2228,19 @@
         <v>404.4048</v>
       </c>
       <c r="M36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1912,7 +2251,7 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>56</v>
@@ -1939,10 +2278,19 @@
         <v>404.4048</v>
       </c>
       <c r="M37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1953,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>55</v>
@@ -1980,10 +2328,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1994,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>55</v>
@@ -2021,10 +2378,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2035,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>55</v>
@@ -2062,10 +2428,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2076,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>55</v>
@@ -2103,10 +2478,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2117,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>55</v>
@@ -2144,10 +2528,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N42" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2158,7 +2551,7 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>55</v>
@@ -2185,10 +2578,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N43" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2199,7 +2601,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>55</v>
@@ -2226,10 +2628,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N44" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2240,7 +2651,7 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>55</v>
@@ -2267,10 +2678,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N45" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2281,7 +2701,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>55</v>
@@ -2308,10 +2728,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N46" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2322,7 +2751,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>55</v>
@@ -2349,10 +2778,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N47" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2363,7 +2801,7 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>55</v>
@@ -2390,10 +2828,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N48" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2404,7 +2851,7 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>55</v>
@@ -2431,10 +2878,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2445,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>55</v>
@@ -2472,10 +2928,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N50" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2486,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>55</v>
@@ -2513,10 +2978,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N51" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2527,7 +3001,7 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>55</v>
@@ -2554,10 +3028,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N52" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2568,7 +3051,7 @@
         <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>55</v>
@@ -2595,10 +3078,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N53" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2609,7 +3101,7 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>55</v>
@@ -2636,10 +3128,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N54" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2650,7 +3151,7 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>55</v>
@@ -2677,10 +3178,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N55" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2691,7 +3201,7 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2718,10 +3228,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N56" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2732,7 +3251,7 @@
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>55</v>
@@ -2759,10 +3278,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N57" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2773,7 +3301,7 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>55</v>
@@ -2800,10 +3328,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N58" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2814,7 +3351,7 @@
         <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>55</v>
@@ -2841,10 +3378,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N59" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2855,7 +3401,7 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>55</v>
@@ -2882,10 +3428,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N60" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2896,7 +3451,7 @@
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>55</v>
@@ -2923,10 +3478,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N61" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2937,7 +3501,7 @@
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>55</v>
@@ -2964,10 +3528,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N62" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2978,7 +3551,7 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>55</v>
@@ -3005,10 +3578,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N63" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3019,7 +3601,7 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>55</v>
@@ -3046,10 +3628,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N64" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3060,7 +3651,7 @@
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>55</v>
@@ -3087,10 +3678,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N65" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3101,7 +3701,7 @@
         <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>55</v>
@@ -3128,10 +3728,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N66" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3142,7 +3751,7 @@
         <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>55</v>
@@ -3169,10 +3778,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N67" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3183,7 +3801,7 @@
         <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>55</v>
@@ -3210,10 +3828,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N68" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3224,7 +3851,7 @@
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>55</v>
@@ -3251,10 +3878,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M69" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N69" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3265,7 +3901,7 @@
         <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>55</v>
@@ -3292,10 +3928,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M70" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N70" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3306,7 +3951,7 @@
         <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>55</v>
@@ -3333,10 +3978,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N71" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3347,7 +4001,7 @@
         <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>55</v>
@@ -3374,10 +4028,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N72" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3388,7 +4051,7 @@
         <v>35</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>55</v>
@@ -3415,10 +4078,19 @@
         <v>398.9690000000001</v>
       </c>
       <c r="M73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N73" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3429,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>60</v>
@@ -3456,10 +4128,19 @@
         <v>426.148</v>
       </c>
       <c r="M74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N74" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3470,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>60</v>
@@ -3497,10 +4178,19 @@
         <v>426.148</v>
       </c>
       <c r="M75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N75" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3511,7 +4201,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>60</v>
@@ -3538,10 +4228,19 @@
         <v>426.148</v>
       </c>
       <c r="M76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N76" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3552,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>60</v>
@@ -3579,10 +4278,19 @@
         <v>426.148</v>
       </c>
       <c r="M77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N77" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3593,7 +4301,7 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>60</v>
@@ -3620,10 +4328,19 @@
         <v>426.148</v>
       </c>
       <c r="M78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N78" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" t="s">
+        <v>21</v>
+      </c>
+      <c r="P78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3634,7 +4351,7 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>60</v>
@@ -3661,10 +4378,19 @@
         <v>426.148</v>
       </c>
       <c r="M79" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N79" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" t="s">
+        <v>21</v>
+      </c>
+      <c r="P79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3675,7 +4401,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>60</v>
@@ -3702,10 +4428,19 @@
         <v>426.148</v>
       </c>
       <c r="M80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N80" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" t="s">
+        <v>21</v>
+      </c>
+      <c r="P80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3716,7 +4451,7 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>60</v>
@@ -3743,10 +4478,19 @@
         <v>426.148</v>
       </c>
       <c r="M81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N81" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3757,7 +4501,7 @@
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>60</v>
@@ -3784,10 +4528,19 @@
         <v>426.148</v>
       </c>
       <c r="M82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N82" t="s">
+        <v>20</v>
+      </c>
+      <c r="O82" t="s">
+        <v>21</v>
+      </c>
+      <c r="P82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3798,7 +4551,7 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>60</v>
@@ -3825,10 +4578,19 @@
         <v>426.148</v>
       </c>
       <c r="M83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N83" t="s">
+        <v>20</v>
+      </c>
+      <c r="O83" t="s">
+        <v>21</v>
+      </c>
+      <c r="P83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3839,7 +4601,7 @@
         <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>60</v>
@@ -3866,10 +4628,19 @@
         <v>426.148</v>
       </c>
       <c r="M84" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N84" t="s">
+        <v>20</v>
+      </c>
+      <c r="O84" t="s">
+        <v>21</v>
+      </c>
+      <c r="P84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3880,7 +4651,7 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>60</v>
@@ -3907,10 +4678,19 @@
         <v>426.148</v>
       </c>
       <c r="M85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N85" t="s">
+        <v>20</v>
+      </c>
+      <c r="O85" t="s">
+        <v>21</v>
+      </c>
+      <c r="P85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3921,7 +4701,7 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>60</v>
@@ -3948,10 +4728,19 @@
         <v>426.148</v>
       </c>
       <c r="M86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N86" t="s">
+        <v>20</v>
+      </c>
+      <c r="O86" t="s">
+        <v>21</v>
+      </c>
+      <c r="P86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3962,7 +4751,7 @@
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>60</v>
@@ -3989,10 +4778,19 @@
         <v>426.148</v>
       </c>
       <c r="M87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N87" t="s">
+        <v>20</v>
+      </c>
+      <c r="O87" t="s">
+        <v>21</v>
+      </c>
+      <c r="P87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4003,7 +4801,7 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>60</v>
@@ -4030,10 +4828,19 @@
         <v>426.148</v>
       </c>
       <c r="M88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N88" t="s">
+        <v>20</v>
+      </c>
+      <c r="O88" t="s">
+        <v>21</v>
+      </c>
+      <c r="P88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4044,7 +4851,7 @@
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>60</v>
@@ -4071,10 +4878,19 @@
         <v>426.148</v>
       </c>
       <c r="M89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N89" t="s">
+        <v>20</v>
+      </c>
+      <c r="O89" t="s">
+        <v>21</v>
+      </c>
+      <c r="P89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4085,7 +4901,7 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>60</v>
@@ -4112,10 +4928,19 @@
         <v>426.148</v>
       </c>
       <c r="M90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N90" t="s">
+        <v>20</v>
+      </c>
+      <c r="O90" t="s">
+        <v>21</v>
+      </c>
+      <c r="P90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4126,7 +4951,7 @@
         <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>60</v>
@@ -4153,10 +4978,19 @@
         <v>426.148</v>
       </c>
       <c r="M91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N91" t="s">
+        <v>20</v>
+      </c>
+      <c r="O91" t="s">
+        <v>21</v>
+      </c>
+      <c r="P91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4167,7 +5001,7 @@
         <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>60</v>
@@ -4194,10 +5028,19 @@
         <v>426.148</v>
       </c>
       <c r="M92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N92" t="s">
+        <v>20</v>
+      </c>
+      <c r="O92" t="s">
+        <v>21</v>
+      </c>
+      <c r="P92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4208,7 +5051,7 @@
         <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>60</v>
@@ -4235,10 +5078,19 @@
         <v>426.148</v>
       </c>
       <c r="M93" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N93" t="s">
+        <v>20</v>
+      </c>
+      <c r="O93" t="s">
+        <v>21</v>
+      </c>
+      <c r="P93">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4249,7 +5101,7 @@
         <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>60</v>
@@ -4276,10 +5128,19 @@
         <v>426.148</v>
       </c>
       <c r="M94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N94" t="s">
+        <v>20</v>
+      </c>
+      <c r="O94" t="s">
+        <v>21</v>
+      </c>
+      <c r="P94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4290,7 +5151,7 @@
         <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>60</v>
@@ -4317,10 +5178,19 @@
         <v>426.148</v>
       </c>
       <c r="M95" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N95" t="s">
+        <v>20</v>
+      </c>
+      <c r="O95" t="s">
+        <v>21</v>
+      </c>
+      <c r="P95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4331,7 +5201,7 @@
         <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>60</v>
@@ -4358,10 +5228,19 @@
         <v>426.148</v>
       </c>
       <c r="M96" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N96" t="s">
+        <v>20</v>
+      </c>
+      <c r="O96" t="s">
+        <v>21</v>
+      </c>
+      <c r="P96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4372,7 +5251,7 @@
         <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -4399,10 +5278,19 @@
         <v>426.148</v>
       </c>
       <c r="M97" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N97" t="s">
+        <v>20</v>
+      </c>
+      <c r="O97" t="s">
+        <v>21</v>
+      </c>
+      <c r="P97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4413,7 +5301,7 @@
         <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>60</v>
@@ -4440,10 +5328,19 @@
         <v>426.148</v>
       </c>
       <c r="M98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N98" t="s">
+        <v>20</v>
+      </c>
+      <c r="O98" t="s">
+        <v>21</v>
+      </c>
+      <c r="P98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4454,7 +5351,7 @@
         <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>60</v>
@@ -4481,10 +5378,19 @@
         <v>426.148</v>
       </c>
       <c r="M99" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N99" t="s">
+        <v>20</v>
+      </c>
+      <c r="O99" t="s">
+        <v>21</v>
+      </c>
+      <c r="P99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4495,7 +5401,7 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>60</v>
@@ -4522,10 +5428,19 @@
         <v>426.148</v>
       </c>
       <c r="M100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N100" t="s">
+        <v>20</v>
+      </c>
+      <c r="O100" t="s">
+        <v>21</v>
+      </c>
+      <c r="P100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4536,7 +5451,7 @@
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>60</v>
@@ -4563,10 +5478,19 @@
         <v>426.148</v>
       </c>
       <c r="M101" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N101" t="s">
+        <v>20</v>
+      </c>
+      <c r="O101" t="s">
+        <v>21</v>
+      </c>
+      <c r="P101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4577,7 +5501,7 @@
         <v>28</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>60</v>
@@ -4604,10 +5528,19 @@
         <v>426.148</v>
       </c>
       <c r="M102" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N102" t="s">
+        <v>20</v>
+      </c>
+      <c r="O102" t="s">
+        <v>21</v>
+      </c>
+      <c r="P102">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4618,7 +5551,7 @@
         <v>29</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>60</v>
@@ -4645,10 +5578,19 @@
         <v>426.148</v>
       </c>
       <c r="M103" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N103" t="s">
+        <v>20</v>
+      </c>
+      <c r="O103" t="s">
+        <v>21</v>
+      </c>
+      <c r="P103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4659,7 +5601,7 @@
         <v>30</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>60</v>
@@ -4686,10 +5628,19 @@
         <v>426.148</v>
       </c>
       <c r="M104" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N104" t="s">
+        <v>20</v>
+      </c>
+      <c r="O104" t="s">
+        <v>21</v>
+      </c>
+      <c r="P104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4700,7 +5651,7 @@
         <v>31</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>60</v>
@@ -4727,10 +5678,19 @@
         <v>426.148</v>
       </c>
       <c r="M105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N105" t="s">
+        <v>20</v>
+      </c>
+      <c r="O105" t="s">
+        <v>21</v>
+      </c>
+      <c r="P105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4741,7 +5701,7 @@
         <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>60</v>
@@ -4768,10 +5728,19 @@
         <v>426.148</v>
       </c>
       <c r="M106" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N106" t="s">
+        <v>20</v>
+      </c>
+      <c r="O106" t="s">
+        <v>21</v>
+      </c>
+      <c r="P106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4782,7 +5751,7 @@
         <v>33</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4809,10 +5778,19 @@
         <v>426.148</v>
       </c>
       <c r="M107" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N107" t="s">
+        <v>20</v>
+      </c>
+      <c r="O107" t="s">
+        <v>21</v>
+      </c>
+      <c r="P107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4823,7 +5801,7 @@
         <v>34</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E108">
         <v>60</v>
@@ -4850,10 +5828,19 @@
         <v>426.148</v>
       </c>
       <c r="M108" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N108" t="s">
+        <v>20</v>
+      </c>
+      <c r="O108" t="s">
+        <v>21</v>
+      </c>
+      <c r="P108">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4864,7 +5851,7 @@
         <v>35</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E109">
         <v>60</v>
@@ -4891,10 +5878,19 @@
         <v>426.148</v>
       </c>
       <c r="M109" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N109" t="s">
+        <v>20</v>
+      </c>
+      <c r="O109" t="s">
+        <v>21</v>
+      </c>
+      <c r="P109">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4905,7 +5901,7 @@
         <v>36</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E110">
         <v>60</v>
@@ -4932,10 +5928,19 @@
         <v>426.148</v>
       </c>
       <c r="M110" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N110" t="s">
+        <v>20</v>
+      </c>
+      <c r="O110" t="s">
+        <v>21</v>
+      </c>
+      <c r="P110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4946,7 +5951,7 @@
         <v>37</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E111">
         <v>60</v>
@@ -4973,10 +5978,19 @@
         <v>426.148</v>
       </c>
       <c r="M111" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N111" t="s">
+        <v>20</v>
+      </c>
+      <c r="O111" t="s">
+        <v>21</v>
+      </c>
+      <c r="P111">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4987,7 +6001,7 @@
         <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E112">
         <v>60</v>
@@ -5014,10 +6028,19 @@
         <v>426.148</v>
       </c>
       <c r="M112" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N112" t="s">
+        <v>20</v>
+      </c>
+      <c r="O112" t="s">
+        <v>21</v>
+      </c>
+      <c r="P112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5028,7 +6051,7 @@
         <v>39</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E113">
         <v>60</v>
@@ -5055,10 +6078,19 @@
         <v>426.148</v>
       </c>
       <c r="M113" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N113" t="s">
+        <v>20</v>
+      </c>
+      <c r="O113" t="s">
+        <v>21</v>
+      </c>
+      <c r="P113">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5069,7 +6101,7 @@
         <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E114">
         <v>60</v>
@@ -5096,10 +6128,19 @@
         <v>426.148</v>
       </c>
       <c r="M114" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N114" t="s">
+        <v>20</v>
+      </c>
+      <c r="O114" t="s">
+        <v>21</v>
+      </c>
+      <c r="P114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5110,7 +6151,7 @@
         <v>41</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E115">
         <v>60</v>
@@ -5137,7 +6178,16 @@
         <v>426.148</v>
       </c>
       <c r="M115" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="N115" t="s">
+        <v>20</v>
+      </c>
+      <c r="O115" t="s">
+        <v>21</v>
+      </c>
+      <c r="P115">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
